--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ouizb\Documents\UiPath\Cars_and_cable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CFBE76-E662-425C-923C-5B99897AB93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +171,40 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>CableDirectoryExcel</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>Dossier dans lequel les factures de cable seront stockées au format excel.</t>
+  </si>
+  <si>
+    <t>CableDirectoryPDF</t>
+  </si>
+  <si>
+    <t>Dossier dans lequel les factures de cable seront stockées au format PDF.</t>
+  </si>
+  <si>
+    <t>CablePrice_File</t>
+  </si>
+  <si>
+    <t>Fichier de correspondance des modèles de cables.</t>
+  </si>
+  <si>
+    <t>Client_SAP</t>
+  </si>
+  <si>
+    <t>Le client SAP.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,6 +228,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF485056"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -221,6 +273,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,16 +591,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +658,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1623,12 +1677,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1719,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1844,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,16 +2836,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2830,10 +2884,62 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3832,5 +3938,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>